--- a/data/pca/factorExposure/factorExposure_2012-02-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01429969008984246</v>
+        <v>0.01499311632327284</v>
       </c>
       <c r="C2">
-        <v>-0.02974553264254377</v>
+        <v>0.02507016551567676</v>
       </c>
       <c r="D2">
-        <v>0.004783670580572671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.006169980303764777</v>
+      </c>
+      <c r="E2">
+        <v>-0.01323917029703072</v>
+      </c>
+      <c r="F2">
+        <v>-0.01290364316450954</v>
+      </c>
+      <c r="G2">
+        <v>0.0163025452483139</v>
+      </c>
+      <c r="H2">
+        <v>-0.04678248503525559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07273444993448497</v>
+        <v>0.08708007706169092</v>
       </c>
       <c r="C4">
-        <v>-0.050099005213295</v>
+        <v>0.03707959130314194</v>
       </c>
       <c r="D4">
-        <v>0.08417047310433419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06544596306108531</v>
+      </c>
+      <c r="E4">
+        <v>-0.01438086920629776</v>
+      </c>
+      <c r="F4">
+        <v>-0.03086122568459814</v>
+      </c>
+      <c r="G4">
+        <v>0.004231480839082834</v>
+      </c>
+      <c r="H4">
+        <v>0.03751227717481691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1079956768672428</v>
+        <v>0.1194754249855638</v>
       </c>
       <c r="C6">
-        <v>-0.05497738554409996</v>
+        <v>0.03431023397817724</v>
       </c>
       <c r="D6">
-        <v>-0.002335078265558697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01377058176075775</v>
+      </c>
+      <c r="E6">
+        <v>0.008598567625598345</v>
+      </c>
+      <c r="F6">
+        <v>-0.05354308045414666</v>
+      </c>
+      <c r="G6">
+        <v>0.03391638572374838</v>
+      </c>
+      <c r="H6">
+        <v>-0.1189231016607295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04936372602236682</v>
+        <v>0.0637076578577834</v>
       </c>
       <c r="C7">
-        <v>-0.02842694723711736</v>
+        <v>0.0203626247856731</v>
       </c>
       <c r="D7">
-        <v>0.04706369372804521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0459577762179746</v>
+      </c>
+      <c r="E7">
+        <v>-0.03615793719334143</v>
+      </c>
+      <c r="F7">
+        <v>-0.0343470661831449</v>
+      </c>
+      <c r="G7">
+        <v>-0.03651372720783708</v>
+      </c>
+      <c r="H7">
+        <v>0.004192287247138843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03830739837226241</v>
+        <v>0.04124727485672362</v>
       </c>
       <c r="C8">
-        <v>-0.01378160767195638</v>
+        <v>0.009213750211486457</v>
       </c>
       <c r="D8">
-        <v>0.05877754618014365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02489733399527708</v>
+      </c>
+      <c r="E8">
+        <v>-0.03494643187985527</v>
+      </c>
+      <c r="F8">
+        <v>-0.05021213508375379</v>
+      </c>
+      <c r="G8">
+        <v>0.05546918971357104</v>
+      </c>
+      <c r="H8">
+        <v>-0.01316898187904596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06636971978923679</v>
+        <v>0.07847859756880948</v>
       </c>
       <c r="C9">
-        <v>-0.04140801820072537</v>
+        <v>0.02807325573858586</v>
       </c>
       <c r="D9">
-        <v>0.071836855219997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06401718586092987</v>
+      </c>
+      <c r="E9">
+        <v>-0.03913267940919008</v>
+      </c>
+      <c r="F9">
+        <v>-0.02945281869336299</v>
+      </c>
+      <c r="G9">
+        <v>0.007008797375706806</v>
+      </c>
+      <c r="H9">
+        <v>0.04151631023328864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02766011870556458</v>
+        <v>0.03336454820345309</v>
       </c>
       <c r="C10">
-        <v>-0.03286296631788162</v>
+        <v>0.04362663841109188</v>
       </c>
       <c r="D10">
-        <v>-0.1793302116310538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.173623754117317</v>
+      </c>
+      <c r="E10">
+        <v>-0.04758993824051679</v>
+      </c>
+      <c r="F10">
+        <v>-0.04538148746302106</v>
+      </c>
+      <c r="G10">
+        <v>-0.02861570947121474</v>
+      </c>
+      <c r="H10">
+        <v>-0.04730189955135251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07026591481014374</v>
+        <v>0.07662730023551093</v>
       </c>
       <c r="C11">
-        <v>-0.04616022920982207</v>
+        <v>0.02678687404522494</v>
       </c>
       <c r="D11">
-        <v>0.05659565381614495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06278092160253465</v>
+      </c>
+      <c r="E11">
+        <v>0.0007755384241716729</v>
+      </c>
+      <c r="F11">
+        <v>-0.02867436630167938</v>
+      </c>
+      <c r="G11">
+        <v>-0.003839456135126226</v>
+      </c>
+      <c r="H11">
+        <v>0.08016417811555289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05846779409961057</v>
+        <v>0.06761986255829541</v>
       </c>
       <c r="C12">
-        <v>-0.05195308894991094</v>
+        <v>0.03702238207140351</v>
       </c>
       <c r="D12">
-        <v>0.04311963863953557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04794838786910942</v>
+      </c>
+      <c r="E12">
+        <v>-0.01393964437681093</v>
+      </c>
+      <c r="F12">
+        <v>-0.02055586488805961</v>
+      </c>
+      <c r="G12">
+        <v>0.001974325262036187</v>
+      </c>
+      <c r="H12">
+        <v>0.03877825016380204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06070958099942765</v>
+        <v>0.06534683164470181</v>
       </c>
       <c r="C13">
-        <v>-0.03975625727366307</v>
+        <v>0.02515323976226721</v>
       </c>
       <c r="D13">
-        <v>0.06032046863180941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04279754976067961</v>
+      </c>
+      <c r="E13">
+        <v>-0.01736310534012673</v>
+      </c>
+      <c r="F13">
+        <v>-0.006906428937766434</v>
+      </c>
+      <c r="G13">
+        <v>-0.009223571492063355</v>
+      </c>
+      <c r="H13">
+        <v>0.03692206070832447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03299020401530724</v>
+        <v>0.04105979067114219</v>
       </c>
       <c r="C14">
-        <v>-0.03074466832995727</v>
+        <v>0.0270269235037129</v>
       </c>
       <c r="D14">
-        <v>0.0006130012262243838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.007286890512613287</v>
+      </c>
+      <c r="E14">
+        <v>-0.03284903735381054</v>
+      </c>
+      <c r="F14">
+        <v>-0.0110716384352412</v>
+      </c>
+      <c r="G14">
+        <v>0.004437273788645181</v>
+      </c>
+      <c r="H14">
+        <v>0.05715146216087946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04031600435013139</v>
+        <v>0.04033717145423941</v>
       </c>
       <c r="C15">
-        <v>-0.01064465617283754</v>
+        <v>0.003536873667294584</v>
       </c>
       <c r="D15">
-        <v>0.01767425809112032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.004034077891658337</v>
+      </c>
+      <c r="E15">
+        <v>-0.04032215749919606</v>
+      </c>
+      <c r="F15">
+        <v>0.00751889289283285</v>
+      </c>
+      <c r="G15">
+        <v>0.02455376494869993</v>
+      </c>
+      <c r="H15">
+        <v>0.03719856472763896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06058991672715351</v>
+        <v>0.07056849159322977</v>
       </c>
       <c r="C16">
-        <v>-0.04198659575950738</v>
+        <v>0.0277345237372244</v>
       </c>
       <c r="D16">
-        <v>0.04689490112335663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06230443511184024</v>
+      </c>
+      <c r="E16">
+        <v>-0.007180476937285268</v>
+      </c>
+      <c r="F16">
+        <v>-0.02526348022521866</v>
+      </c>
+      <c r="G16">
+        <v>-0.005053585487568769</v>
+      </c>
+      <c r="H16">
+        <v>0.04948494582889646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0630135495495656</v>
+        <v>0.06410606150223555</v>
       </c>
       <c r="C20">
-        <v>-0.02943709323719004</v>
+        <v>0.01298176982331382</v>
       </c>
       <c r="D20">
-        <v>0.04914277344027761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03791203260688052</v>
+      </c>
+      <c r="E20">
+        <v>-0.03070626944844348</v>
+      </c>
+      <c r="F20">
+        <v>-0.01994324204601015</v>
+      </c>
+      <c r="G20">
+        <v>0.01209544744400187</v>
+      </c>
+      <c r="H20">
+        <v>0.03815193110133915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02525553103507727</v>
+        <v>0.02606752543992478</v>
       </c>
       <c r="C21">
-        <v>0.001796781787998785</v>
+        <v>-0.009428987622478704</v>
       </c>
       <c r="D21">
-        <v>0.0228882060224251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02628689076503288</v>
+      </c>
+      <c r="E21">
+        <v>-0.0391074162453621</v>
+      </c>
+      <c r="F21">
+        <v>0.01439140243475793</v>
+      </c>
+      <c r="G21">
+        <v>0.007506454398063032</v>
+      </c>
+      <c r="H21">
+        <v>-0.04490002349355742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07830548255039135</v>
+        <v>0.07280167498431098</v>
       </c>
       <c r="C22">
-        <v>-0.06109114657555123</v>
+        <v>0.03974274873481392</v>
       </c>
       <c r="D22">
-        <v>0.1027225564347217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06940854032621523</v>
+      </c>
+      <c r="E22">
+        <v>-0.5648999135970557</v>
+      </c>
+      <c r="F22">
+        <v>0.2430318118214871</v>
+      </c>
+      <c r="G22">
+        <v>-0.07356051618862211</v>
+      </c>
+      <c r="H22">
+        <v>-0.145959711958277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07928180758623109</v>
+        <v>0.07345206115820177</v>
       </c>
       <c r="C23">
-        <v>-0.0599926630043696</v>
+        <v>0.03842090871313558</v>
       </c>
       <c r="D23">
-        <v>0.1043131061026584</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.07024751218984018</v>
+      </c>
+      <c r="E23">
+        <v>-0.5642853008814172</v>
+      </c>
+      <c r="F23">
+        <v>0.2416764093606928</v>
+      </c>
+      <c r="G23">
+        <v>-0.07214109906522717</v>
+      </c>
+      <c r="H23">
+        <v>-0.1410291774402695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07091722148515037</v>
+        <v>0.08001354398023913</v>
       </c>
       <c r="C24">
-        <v>-0.05054950504338406</v>
+        <v>0.03309414684891694</v>
       </c>
       <c r="D24">
-        <v>0.05817435738629977</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05976071518429431</v>
+      </c>
+      <c r="E24">
+        <v>-0.01702744706344965</v>
+      </c>
+      <c r="F24">
+        <v>-0.03462239725461499</v>
+      </c>
+      <c r="G24">
+        <v>0.01185943429988552</v>
+      </c>
+      <c r="H24">
+        <v>0.04969672143593129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07055324928394308</v>
+        <v>0.07790027944288862</v>
       </c>
       <c r="C25">
-        <v>-0.05610129856161809</v>
+        <v>0.03792786992887785</v>
       </c>
       <c r="D25">
-        <v>0.0652682238701206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05309255515932567</v>
+      </c>
+      <c r="E25">
+        <v>-0.02110008693141621</v>
+      </c>
+      <c r="F25">
+        <v>-0.02390215766940664</v>
+      </c>
+      <c r="G25">
+        <v>0.01848627817028385</v>
+      </c>
+      <c r="H25">
+        <v>0.05229348829004057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04533726021433383</v>
+        <v>0.04767977530265141</v>
       </c>
       <c r="C26">
-        <v>-0.01058877765688027</v>
+        <v>0.002830162290803442</v>
       </c>
       <c r="D26">
-        <v>0.01289355326003698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01712547514597808</v>
+      </c>
+      <c r="E26">
+        <v>-0.05481471068820499</v>
+      </c>
+      <c r="F26">
+        <v>-0.02065063815077314</v>
+      </c>
+      <c r="G26">
+        <v>-0.00926080070971798</v>
+      </c>
+      <c r="H26">
+        <v>0.0531301826988671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05246796513348118</v>
+        <v>0.06157962245896271</v>
       </c>
       <c r="C28">
-        <v>-0.07503518710834325</v>
+        <v>0.08739559675808171</v>
       </c>
       <c r="D28">
-        <v>-0.3141824128497069</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3090171693068439</v>
+      </c>
+      <c r="E28">
+        <v>-0.02699840347075647</v>
+      </c>
+      <c r="F28">
+        <v>-0.05309702157748131</v>
+      </c>
+      <c r="G28">
+        <v>0.03388591332944</v>
+      </c>
+      <c r="H28">
+        <v>-0.04021967879931659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04067931341427821</v>
+        <v>0.04870489671860335</v>
       </c>
       <c r="C29">
-        <v>-0.03052987055172456</v>
+        <v>0.02583536018930604</v>
       </c>
       <c r="D29">
-        <v>0.003972501771283558</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.005891313274215339</v>
+      </c>
+      <c r="E29">
+        <v>-0.05421847412806968</v>
+      </c>
+      <c r="F29">
+        <v>-0.002489829086531998</v>
+      </c>
+      <c r="G29">
+        <v>-0.01010350869249146</v>
+      </c>
+      <c r="H29">
+        <v>0.07809490326583261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1244861150935448</v>
+        <v>0.1313423197042431</v>
       </c>
       <c r="C30">
-        <v>-0.09164593988337631</v>
+        <v>0.06354674438261211</v>
       </c>
       <c r="D30">
-        <v>0.1163367351890408</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06893815229023642</v>
+      </c>
+      <c r="E30">
+        <v>-0.08617005652139607</v>
+      </c>
+      <c r="F30">
+        <v>0.02761403584822167</v>
+      </c>
+      <c r="G30">
+        <v>0.0824177779736455</v>
+      </c>
+      <c r="H30">
+        <v>-0.05407118415586928</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04322928604977835</v>
+        <v>0.04906617986941472</v>
       </c>
       <c r="C31">
-        <v>-0.02202235733865905</v>
+        <v>0.01370763523105802</v>
       </c>
       <c r="D31">
-        <v>0.02511476262458268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02619817452575885</v>
+      </c>
+      <c r="E31">
+        <v>-0.02678261050295194</v>
+      </c>
+      <c r="F31">
+        <v>-0.01014934119755375</v>
+      </c>
+      <c r="G31">
+        <v>-0.02852027827986132</v>
+      </c>
+      <c r="H31">
+        <v>0.06173565572315375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03837732150101917</v>
+        <v>0.03924224816052838</v>
       </c>
       <c r="C32">
-        <v>-0.02476289988584423</v>
+        <v>0.01734594865086391</v>
       </c>
       <c r="D32">
-        <v>0.02358883672613514</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0125501058332475</v>
+      </c>
+      <c r="E32">
+        <v>-0.068169472850189</v>
+      </c>
+      <c r="F32">
+        <v>0.02010396860568589</v>
+      </c>
+      <c r="G32">
+        <v>0.01920998922797701</v>
+      </c>
+      <c r="H32">
+        <v>0.07764607532863456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08255279190769195</v>
+        <v>0.09589115482791752</v>
       </c>
       <c r="C33">
-        <v>-0.04341289025327966</v>
+        <v>0.02734548272974113</v>
       </c>
       <c r="D33">
-        <v>0.06458790689941296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04787378179803157</v>
+      </c>
+      <c r="E33">
+        <v>-0.01466528028543517</v>
+      </c>
+      <c r="F33">
+        <v>-0.004658724232878208</v>
+      </c>
+      <c r="G33">
+        <v>-0.006416973932572278</v>
+      </c>
+      <c r="H33">
+        <v>0.05123404540030699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05637361003733563</v>
+        <v>0.06278881804620308</v>
       </c>
       <c r="C34">
-        <v>-0.02784691192027191</v>
+        <v>0.0138453723536683</v>
       </c>
       <c r="D34">
-        <v>0.05566062421528865</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05330132364456647</v>
+      </c>
+      <c r="E34">
+        <v>-0.009232457272745504</v>
+      </c>
+      <c r="F34">
+        <v>-0.01729296776838854</v>
+      </c>
+      <c r="G34">
+        <v>-0.001659642048187708</v>
+      </c>
+      <c r="H34">
+        <v>0.05427037578012703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03721097546793677</v>
+        <v>0.0397576400215575</v>
       </c>
       <c r="C35">
-        <v>-0.007623604350885264</v>
+        <v>0.00242037613014337</v>
       </c>
       <c r="D35">
-        <v>0.008498788469779009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.007965822979001372</v>
+      </c>
+      <c r="E35">
+        <v>-0.0182691445796518</v>
+      </c>
+      <c r="F35">
+        <v>0.01564306469504615</v>
+      </c>
+      <c r="G35">
+        <v>-0.01159524494363012</v>
+      </c>
+      <c r="H35">
+        <v>0.01728853844152116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02190320419492101</v>
+        <v>0.02860964822335583</v>
       </c>
       <c r="C36">
-        <v>-0.01696832757557599</v>
+        <v>0.01373632133536683</v>
       </c>
       <c r="D36">
-        <v>0.02177773012657624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01474116258023604</v>
+      </c>
+      <c r="E36">
+        <v>-0.04258608933325546</v>
+      </c>
+      <c r="F36">
+        <v>-0.0128335120673554</v>
+      </c>
+      <c r="G36">
+        <v>-0.008770644398245772</v>
+      </c>
+      <c r="H36">
+        <v>0.04128732634303663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04054632517107666</v>
+        <v>0.04469476110755247</v>
       </c>
       <c r="C38">
-        <v>-0.00522995182434601</v>
+        <v>-6.055955111473205e-05</v>
       </c>
       <c r="D38">
-        <v>0.01850530316483154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01727855673778315</v>
+      </c>
+      <c r="E38">
+        <v>-0.05343891806408903</v>
+      </c>
+      <c r="F38">
+        <v>0.01366237006770478</v>
+      </c>
+      <c r="G38">
+        <v>0.004336337024526196</v>
+      </c>
+      <c r="H38">
+        <v>0.02978404837600668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09090866032908604</v>
+        <v>0.1021904417527347</v>
       </c>
       <c r="C39">
-        <v>-0.07256336420609978</v>
+        <v>0.05109382078486924</v>
       </c>
       <c r="D39">
-        <v>0.0569421677617438</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05891582346607755</v>
+      </c>
+      <c r="E39">
+        <v>-0.0009297952043123243</v>
+      </c>
+      <c r="F39">
+        <v>-0.002323903251809839</v>
+      </c>
+      <c r="G39">
+        <v>0.03451782134080957</v>
+      </c>
+      <c r="H39">
+        <v>0.0431519058785423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07443635114560379</v>
+        <v>0.07067908431831063</v>
       </c>
       <c r="C40">
-        <v>-0.04115938978132951</v>
+        <v>0.02029875718852755</v>
       </c>
       <c r="D40">
-        <v>-0.003183426041124985</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01180689745839602</v>
+      </c>
+      <c r="E40">
+        <v>-0.01702613738855278</v>
+      </c>
+      <c r="F40">
+        <v>0.05808272413043589</v>
+      </c>
+      <c r="G40">
+        <v>0.05599673912778082</v>
+      </c>
+      <c r="H40">
+        <v>-0.1106168427424663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0411247032517377</v>
+        <v>0.04400152410152441</v>
       </c>
       <c r="C41">
-        <v>-0.005605611167720434</v>
+        <v>-0.001776885984199555</v>
       </c>
       <c r="D41">
-        <v>0.03709280392274791</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03413245826939738</v>
+      </c>
+      <c r="E41">
+        <v>-0.003115134629763792</v>
+      </c>
+      <c r="F41">
+        <v>0.01404385717866964</v>
+      </c>
+      <c r="G41">
+        <v>0.009737003215469846</v>
+      </c>
+      <c r="H41">
+        <v>0.03280953177228212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04790318169436082</v>
+        <v>0.05831913261685019</v>
       </c>
       <c r="C43">
-        <v>-0.02569114448657071</v>
+        <v>0.01783393080308694</v>
       </c>
       <c r="D43">
-        <v>0.01862822066348464</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02500963050219429</v>
+      </c>
+      <c r="E43">
+        <v>-0.02061336344346421</v>
+      </c>
+      <c r="F43">
+        <v>-0.01235567551818175</v>
+      </c>
+      <c r="G43">
+        <v>-0.01630516741783756</v>
+      </c>
+      <c r="H43">
+        <v>0.05311798040756035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09170387682569653</v>
+        <v>0.09554118898310468</v>
       </c>
       <c r="C44">
-        <v>-0.09268661956810245</v>
+        <v>0.06678083411260242</v>
       </c>
       <c r="D44">
-        <v>0.08026953991872605</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05790367709931185</v>
+      </c>
+      <c r="E44">
+        <v>-0.08752443129568638</v>
+      </c>
+      <c r="F44">
+        <v>-0.03851906624527113</v>
+      </c>
+      <c r="G44">
+        <v>0.02857604560192437</v>
+      </c>
+      <c r="H44">
+        <v>0.007161239325146808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02436259091225719</v>
+        <v>0.03364393406898328</v>
       </c>
       <c r="C46">
-        <v>-0.01311125271483998</v>
+        <v>0.01123955410740466</v>
       </c>
       <c r="D46">
-        <v>0.02143780617573914</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03148243139746859</v>
+      </c>
+      <c r="E46">
+        <v>-0.03008178024831183</v>
+      </c>
+      <c r="F46">
+        <v>-0.01329552859720381</v>
+      </c>
+      <c r="G46">
+        <v>-0.005776925577369069</v>
+      </c>
+      <c r="H46">
+        <v>0.04137673952713879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02922710342209712</v>
+        <v>0.03743041766464163</v>
       </c>
       <c r="C47">
-        <v>-0.02448262128986543</v>
+        <v>0.02054854762122464</v>
       </c>
       <c r="D47">
-        <v>0.01284923054887731</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01048140906455425</v>
+      </c>
+      <c r="E47">
+        <v>-0.05149934491290571</v>
+      </c>
+      <c r="F47">
+        <v>-0.00746440012975026</v>
+      </c>
+      <c r="G47">
+        <v>-0.04338609297970458</v>
+      </c>
+      <c r="H47">
+        <v>0.02366792870320927</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03303937479364425</v>
+        <v>0.03771553793047379</v>
       </c>
       <c r="C48">
-        <v>-0.01862800166963987</v>
+        <v>0.01138595490406735</v>
       </c>
       <c r="D48">
-        <v>0.02998756082491047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01883603118700826</v>
+      </c>
+      <c r="E48">
+        <v>-0.04526064416083052</v>
+      </c>
+      <c r="F48">
+        <v>0.00107620605765468</v>
+      </c>
+      <c r="G48">
+        <v>0.01048596643737861</v>
+      </c>
+      <c r="H48">
+        <v>0.03970761214283427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1600388868117512</v>
+        <v>0.188407723374002</v>
       </c>
       <c r="C49">
-        <v>-0.05975529216680058</v>
+        <v>0.03623809624238537</v>
       </c>
       <c r="D49">
-        <v>-0.01254908285509305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.0296079786139971</v>
+      </c>
+      <c r="E49">
+        <v>0.1459995027882422</v>
+      </c>
+      <c r="F49">
+        <v>-0.07997137262118746</v>
+      </c>
+      <c r="G49">
+        <v>-0.04808594184445986</v>
+      </c>
+      <c r="H49">
+        <v>-0.2284164819626223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03868633844014252</v>
+        <v>0.04590439303771763</v>
       </c>
       <c r="C50">
-        <v>-0.02626714255821255</v>
+        <v>0.01915322417662785</v>
       </c>
       <c r="D50">
-        <v>0.03792460966352276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03073342696722393</v>
+      </c>
+      <c r="E50">
+        <v>-0.05026533765737366</v>
+      </c>
+      <c r="F50">
+        <v>-0.01014750071024732</v>
+      </c>
+      <c r="G50">
+        <v>-0.02465380890917836</v>
+      </c>
+      <c r="H50">
+        <v>0.05992480861093011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02668709439406846</v>
+        <v>0.03012906803632165</v>
       </c>
       <c r="C51">
-        <v>-0.01028108459885451</v>
+        <v>0.004809735562887357</v>
       </c>
       <c r="D51">
-        <v>0.01355210681911879</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01228602212320429</v>
+      </c>
+      <c r="E51">
+        <v>-0.01374349939544582</v>
+      </c>
+      <c r="F51">
+        <v>-0.01929832767212161</v>
+      </c>
+      <c r="G51">
+        <v>-0.001789585003723487</v>
+      </c>
+      <c r="H51">
+        <v>-0.001989273267837605</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1517165156953927</v>
+        <v>0.1624347772625878</v>
       </c>
       <c r="C53">
-        <v>-0.07893925744611117</v>
+        <v>0.05263571001011785</v>
       </c>
       <c r="D53">
-        <v>0.02437581644375238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01932486341171016</v>
+      </c>
+      <c r="E53">
+        <v>0.02462286613995599</v>
+      </c>
+      <c r="F53">
+        <v>-0.02017973149637562</v>
+      </c>
+      <c r="G53">
+        <v>-0.02657255206925657</v>
+      </c>
+      <c r="H53">
+        <v>0.1808931390016037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05556557044909933</v>
+        <v>0.05815612016116865</v>
       </c>
       <c r="C54">
-        <v>-0.0257842167515341</v>
+        <v>0.01469814238670998</v>
       </c>
       <c r="D54">
-        <v>0.02261041532095129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01655120621949947</v>
+      </c>
+      <c r="E54">
+        <v>-0.05056435120816102</v>
+      </c>
+      <c r="F54">
+        <v>-0.003809854047117194</v>
+      </c>
+      <c r="G54">
+        <v>0.01080711612072963</v>
+      </c>
+      <c r="H54">
+        <v>0.0465867928729165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09913897986004487</v>
+        <v>0.1034689821327396</v>
       </c>
       <c r="C55">
-        <v>-0.05458080672702189</v>
+        <v>0.03505519288924062</v>
       </c>
       <c r="D55">
-        <v>0.02628629775916566</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02349336710454105</v>
+      </c>
+      <c r="E55">
+        <v>-0.01758110109793117</v>
+      </c>
+      <c r="F55">
+        <v>-0.01369114404177811</v>
+      </c>
+      <c r="G55">
+        <v>-0.02002231618724728</v>
+      </c>
+      <c r="H55">
+        <v>0.1520612453885937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1487440601801863</v>
+        <v>0.1615403853464221</v>
       </c>
       <c r="C56">
-        <v>-0.09176706818038362</v>
+        <v>0.06465188708355982</v>
       </c>
       <c r="D56">
-        <v>0.02438114360114849</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01987316847497375</v>
+      </c>
+      <c r="E56">
+        <v>0.02361570907203386</v>
+      </c>
+      <c r="F56">
+        <v>-0.03668631471135221</v>
+      </c>
+      <c r="G56">
+        <v>-0.03824577032259485</v>
+      </c>
+      <c r="H56">
+        <v>0.1789600887140544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1283770983937214</v>
+        <v>0.09932346280419792</v>
       </c>
       <c r="C58">
-        <v>-0.005751666486959477</v>
+        <v>-0.03777023464625451</v>
       </c>
       <c r="D58">
-        <v>0.02593036828891422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03925800224678683</v>
+      </c>
+      <c r="E58">
+        <v>-0.1686416286751448</v>
+      </c>
+      <c r="F58">
+        <v>0.01903759018823362</v>
+      </c>
+      <c r="G58">
+        <v>-0.0227546191797764</v>
+      </c>
+      <c r="H58">
+        <v>-0.2602531488123702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1195263191832594</v>
+        <v>0.1362012836721712</v>
       </c>
       <c r="C59">
-        <v>-0.08003147412530329</v>
+        <v>0.08782063435020444</v>
       </c>
       <c r="D59">
-        <v>-0.3536609427003501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3630294345342803</v>
+      </c>
+      <c r="E59">
+        <v>-0.02679528827440657</v>
+      </c>
+      <c r="F59">
+        <v>-0.01807056694346248</v>
+      </c>
+      <c r="G59">
+        <v>-0.02466959447875858</v>
+      </c>
+      <c r="H59">
+        <v>-0.002204849779686406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2011093102940731</v>
+        <v>0.2323860897453674</v>
       </c>
       <c r="C60">
-        <v>-0.1028681875881212</v>
+        <v>0.06922060926151102</v>
       </c>
       <c r="D60">
-        <v>0.01580580179890851</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04296502826846574</v>
+      </c>
+      <c r="E60">
+        <v>0.08996816220499622</v>
+      </c>
+      <c r="F60">
+        <v>-0.06896226461094938</v>
+      </c>
+      <c r="G60">
+        <v>0.02749006468539492</v>
+      </c>
+      <c r="H60">
+        <v>-0.1470397219605547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08015189842146735</v>
+        <v>0.08889912496808276</v>
       </c>
       <c r="C61">
-        <v>-0.0525260644274184</v>
+        <v>0.03742720020233807</v>
       </c>
       <c r="D61">
-        <v>0.04245385311894363</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04021552303256632</v>
+      </c>
+      <c r="E61">
+        <v>0.002899524722898357</v>
+      </c>
+      <c r="F61">
+        <v>-0.003345966250099173</v>
+      </c>
+      <c r="G61">
+        <v>-0.0007369208966209612</v>
+      </c>
+      <c r="H61">
+        <v>0.06224938294962593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.128715168146594</v>
+        <v>0.1391068975022936</v>
       </c>
       <c r="C62">
-        <v>-0.06558079146320808</v>
+        <v>0.04063562682173365</v>
       </c>
       <c r="D62">
-        <v>0.03108526978870571</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.03289278530840248</v>
+      </c>
+      <c r="E62">
+        <v>0.06107022901191438</v>
+      </c>
+      <c r="F62">
+        <v>-0.01665951692552303</v>
+      </c>
+      <c r="G62">
+        <v>0.005645401704095577</v>
+      </c>
+      <c r="H62">
+        <v>0.1988817226747506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05130191138435466</v>
+        <v>0.05094059638904239</v>
       </c>
       <c r="C63">
-        <v>-0.02450784973169847</v>
+        <v>0.01297962794617341</v>
       </c>
       <c r="D63">
-        <v>0.02212571422793413</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0202184991997511</v>
+      </c>
+      <c r="E63">
+        <v>-0.0498342726140179</v>
+      </c>
+      <c r="F63">
+        <v>0.0154242131239072</v>
+      </c>
+      <c r="G63">
+        <v>0.02022552576646324</v>
+      </c>
+      <c r="H63">
+        <v>0.05545582602330548</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1002907938031772</v>
+        <v>0.1066303692384311</v>
       </c>
       <c r="C64">
-        <v>-0.03198309100833271</v>
+        <v>0.01421725187810183</v>
       </c>
       <c r="D64">
-        <v>0.04855106308288239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03500089992523163</v>
+      </c>
+      <c r="E64">
+        <v>-0.03852865527973903</v>
+      </c>
+      <c r="F64">
+        <v>-0.03701908832902022</v>
+      </c>
+      <c r="G64">
+        <v>0.04719480177233185</v>
+      </c>
+      <c r="H64">
+        <v>0.0439342213773702</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1230355937108456</v>
+        <v>0.1261769853597868</v>
       </c>
       <c r="C65">
-        <v>-0.06178866024290371</v>
+        <v>0.03932024214515386</v>
       </c>
       <c r="D65">
-        <v>-0.01542996567752626</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.00670196214967602</v>
+      </c>
+      <c r="E65">
+        <v>-0.009454749776508575</v>
+      </c>
+      <c r="F65">
+        <v>-0.05011935551176318</v>
+      </c>
+      <c r="G65">
+        <v>0.06238682649957437</v>
+      </c>
+      <c r="H65">
+        <v>-0.1508731620231042</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1440995339628929</v>
+        <v>0.1547605747644677</v>
       </c>
       <c r="C66">
-        <v>-0.07813210203969927</v>
+        <v>0.04796720665110415</v>
       </c>
       <c r="D66">
-        <v>0.1112397345658409</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09449177475501261</v>
+      </c>
+      <c r="E66">
+        <v>0.02959787628036357</v>
+      </c>
+      <c r="F66">
+        <v>-0.01680144958221125</v>
+      </c>
+      <c r="G66">
+        <v>0.04420060648024128</v>
+      </c>
+      <c r="H66">
+        <v>0.1176264271424138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07295548077290334</v>
+        <v>0.0844998431575692</v>
       </c>
       <c r="C67">
-        <v>-0.01503220639833432</v>
+        <v>0.005839585136480559</v>
       </c>
       <c r="D67">
-        <v>0.02290001040803828</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0300334850046368</v>
+      </c>
+      <c r="E67">
+        <v>-0.02394836710161308</v>
+      </c>
+      <c r="F67">
+        <v>-0.01854136767851908</v>
+      </c>
+      <c r="G67">
+        <v>-0.01483154210282997</v>
+      </c>
+      <c r="H67">
+        <v>0.0340020642319911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05830453867320983</v>
+        <v>0.05668979951113587</v>
       </c>
       <c r="C68">
-        <v>-0.05106023438356495</v>
+        <v>0.05963143465403809</v>
       </c>
       <c r="D68">
-        <v>-0.2518289068419352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2688085268939726</v>
+      </c>
+      <c r="E68">
+        <v>-0.03492226038867934</v>
+      </c>
+      <c r="F68">
+        <v>-0.01278045479963626</v>
+      </c>
+      <c r="G68">
+        <v>-0.01688478125927767</v>
+      </c>
+      <c r="H68">
+        <v>0.001095232587243372</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05144578391657022</v>
+        <v>0.05292048393792877</v>
       </c>
       <c r="C69">
-        <v>-0.0175040543477997</v>
+        <v>0.006180732695495405</v>
       </c>
       <c r="D69">
-        <v>0.0201357766704832</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01559280257053872</v>
+      </c>
+      <c r="E69">
+        <v>-0.02512872931416249</v>
+      </c>
+      <c r="F69">
+        <v>0.009238251004011976</v>
+      </c>
+      <c r="G69">
+        <v>-0.02148433118125877</v>
+      </c>
+      <c r="H69">
+        <v>0.04777837767573264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003588457450115</v>
+        <v>0.02659741129441156</v>
       </c>
       <c r="C70">
-        <v>0.005373164171537818</v>
+        <v>8.74465237271674e-05</v>
       </c>
       <c r="D70">
-        <v>0.00116326628467805</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.006182343746458385</v>
+      </c>
+      <c r="E70">
+        <v>0.02053378111340345</v>
+      </c>
+      <c r="F70">
+        <v>-0.01838009782211521</v>
+      </c>
+      <c r="G70">
+        <v>-0.02756071561991655</v>
+      </c>
+      <c r="H70">
+        <v>-0.02480015502660328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05829844419916209</v>
+        <v>0.05944448728255752</v>
       </c>
       <c r="C71">
-        <v>-0.05085667341408687</v>
+        <v>0.06319729412365391</v>
       </c>
       <c r="D71">
-        <v>-0.2926666307414995</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2951818427894217</v>
+      </c>
+      <c r="E71">
+        <v>-0.03326312554711248</v>
+      </c>
+      <c r="F71">
+        <v>-0.03977157684261098</v>
+      </c>
+      <c r="G71">
+        <v>-0.004101902350900733</v>
+      </c>
+      <c r="H71">
+        <v>0.008710327907544922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1421388770051709</v>
+        <v>0.146105804349893</v>
       </c>
       <c r="C72">
-        <v>-0.06666756404762229</v>
+        <v>0.03649895663770206</v>
       </c>
       <c r="D72">
-        <v>-0.0058170325633254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008149343821104851</v>
+      </c>
+      <c r="E72">
+        <v>0.1130687744885368</v>
+      </c>
+      <c r="F72">
+        <v>0.1551575448278621</v>
+      </c>
+      <c r="G72">
+        <v>0.1208338504279536</v>
+      </c>
+      <c r="H72">
+        <v>0.01719510616111946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2736801386230094</v>
+        <v>0.2874451142960294</v>
       </c>
       <c r="C73">
-        <v>-0.1108573075729478</v>
+        <v>0.04576562382870265</v>
       </c>
       <c r="D73">
-        <v>0.0479144473090882</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09913514010359731</v>
+      </c>
+      <c r="E73">
+        <v>0.2110799854261029</v>
+      </c>
+      <c r="F73">
+        <v>-0.1262857857950211</v>
+      </c>
+      <c r="G73">
+        <v>-0.131754645341713</v>
+      </c>
+      <c r="H73">
+        <v>-0.4946956350819793</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07868878275608739</v>
+        <v>0.09117312032533746</v>
       </c>
       <c r="C74">
-        <v>-0.07595391017691278</v>
+        <v>0.05921300452915116</v>
       </c>
       <c r="D74">
-        <v>0.01488858189145513</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0297252295054795</v>
+      </c>
+      <c r="E74">
+        <v>0.0046524492284569</v>
+      </c>
+      <c r="F74">
+        <v>-0.0002772032846915279</v>
+      </c>
+      <c r="G74">
+        <v>-0.05874227945878333</v>
+      </c>
+      <c r="H74">
+        <v>0.1142311503568328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09555646387986731</v>
+        <v>0.1007679186586431</v>
       </c>
       <c r="C75">
-        <v>-0.05390016620544214</v>
+        <v>0.02931447043301095</v>
       </c>
       <c r="D75">
-        <v>0.008311211452345008</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01386207722573264</v>
+      </c>
+      <c r="E75">
+        <v>-0.009420988404240535</v>
+      </c>
+      <c r="F75">
+        <v>-0.02565983039571543</v>
+      </c>
+      <c r="G75">
+        <v>-0.02690179405630657</v>
+      </c>
+      <c r="H75">
+        <v>0.1184528317892875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1292982679273194</v>
+        <v>0.1400135380493173</v>
       </c>
       <c r="C76">
-        <v>-0.0830342751375908</v>
+        <v>0.05766265444554529</v>
       </c>
       <c r="D76">
-        <v>0.05399765898821445</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04951101101139398</v>
+      </c>
+      <c r="E76">
+        <v>-0.02995631544763184</v>
+      </c>
+      <c r="F76">
+        <v>-0.04499557898800376</v>
+      </c>
+      <c r="G76">
+        <v>-0.02224148873299214</v>
+      </c>
+      <c r="H76">
+        <v>0.2038265181297477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1139270402700044</v>
+        <v>0.1082880562860372</v>
       </c>
       <c r="C77">
-        <v>-0.02117354752902731</v>
+        <v>-0.007165768230550055</v>
       </c>
       <c r="D77">
-        <v>0.05517210980121354</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02093007354476574</v>
+      </c>
+      <c r="E77">
+        <v>-0.04564831102112368</v>
+      </c>
+      <c r="F77">
+        <v>-0.1008553199041367</v>
+      </c>
+      <c r="G77">
+        <v>0.892959805293279</v>
+      </c>
+      <c r="H77">
+        <v>-0.05785801823682354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1015540672251325</v>
+        <v>0.1421268408383342</v>
       </c>
       <c r="C78">
-        <v>-0.04155035102748642</v>
+        <v>0.03549610602089805</v>
       </c>
       <c r="D78">
-        <v>0.0813433022545364</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08168367452693552</v>
+      </c>
+      <c r="E78">
+        <v>-0.05980730480034016</v>
+      </c>
+      <c r="F78">
+        <v>-0.03956568796569901</v>
+      </c>
+      <c r="G78">
+        <v>0.08455898118580954</v>
+      </c>
+      <c r="H78">
+        <v>-0.05037925511758588</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1466577375681476</v>
+        <v>0.1516536239492237</v>
       </c>
       <c r="C79">
-        <v>-0.07646114138995545</v>
+        <v>0.04505165896751879</v>
       </c>
       <c r="D79">
-        <v>0.0314908944726127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02724407543459077</v>
+      </c>
+      <c r="E79">
+        <v>0.01597062992972288</v>
+      </c>
+      <c r="F79">
+        <v>-0.02066234091460166</v>
+      </c>
+      <c r="G79">
+        <v>-0.04304085121801088</v>
+      </c>
+      <c r="H79">
+        <v>0.1755141342715605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04505322641906052</v>
+        <v>0.04296672583738079</v>
       </c>
       <c r="C80">
-        <v>-0.01521745639949403</v>
+        <v>0.00638745670354603</v>
       </c>
       <c r="D80">
-        <v>0.0272522631102101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01798252655083746</v>
+      </c>
+      <c r="E80">
+        <v>0.01492509128417942</v>
+      </c>
+      <c r="F80">
+        <v>0.0006172040461193228</v>
+      </c>
+      <c r="G80">
+        <v>-0.03079774762318458</v>
+      </c>
+      <c r="H80">
+        <v>0.02708903162053446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1158139282728434</v>
+        <v>0.1206212543933791</v>
       </c>
       <c r="C81">
-        <v>-0.06347490354155678</v>
+        <v>0.03797260536766868</v>
       </c>
       <c r="D81">
-        <v>0.03234665376725179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02198899129290107</v>
+      </c>
+      <c r="E81">
+        <v>-0.02258090642420865</v>
+      </c>
+      <c r="F81">
+        <v>-0.01667275130469946</v>
+      </c>
+      <c r="G81">
+        <v>-0.0649012285769648</v>
+      </c>
+      <c r="H81">
+        <v>0.1479286088154458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1296182454231779</v>
+        <v>0.1315703061193033</v>
       </c>
       <c r="C82">
-        <v>-0.07822341659969675</v>
+        <v>0.0511432801597337</v>
       </c>
       <c r="D82">
-        <v>0.01669969575941425</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02615069740182096</v>
+      </c>
+      <c r="E82">
+        <v>0.00813102319756576</v>
+      </c>
+      <c r="F82">
+        <v>-0.05735675753271872</v>
+      </c>
+      <c r="G82">
+        <v>-0.05691571905512911</v>
+      </c>
+      <c r="H82">
+        <v>0.2205696291519183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07440729104374272</v>
+        <v>0.08624643813876527</v>
       </c>
       <c r="C83">
-        <v>0.01166317006449239</v>
+        <v>-0.02464990614672533</v>
       </c>
       <c r="D83">
-        <v>0.02423222113910179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03133186345309586</v>
+      </c>
+      <c r="E83">
+        <v>-0.02239838501383257</v>
+      </c>
+      <c r="F83">
+        <v>-0.05557330413552258</v>
+      </c>
+      <c r="G83">
+        <v>-0.0824608027089722</v>
+      </c>
+      <c r="H83">
+        <v>-0.05911474995323453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0281791947748579</v>
+        <v>0.03730104375015106</v>
       </c>
       <c r="C84">
-        <v>-0.02847039450001984</v>
+        <v>0.02298030939962655</v>
       </c>
       <c r="D84">
-        <v>0.03077295456088661</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03178065053722244</v>
+      </c>
+      <c r="E84">
+        <v>-0.02921161931031357</v>
+      </c>
+      <c r="F84">
+        <v>0.05555697747927053</v>
+      </c>
+      <c r="G84">
+        <v>-0.06675930875721917</v>
+      </c>
+      <c r="H84">
+        <v>-0.004153803986900669</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1195550847263138</v>
+        <v>0.1217257500716543</v>
       </c>
       <c r="C85">
-        <v>-0.05505018536445126</v>
+        <v>0.02874962485099178</v>
       </c>
       <c r="D85">
-        <v>0.02028333884367447</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02003550208981858</v>
+      </c>
+      <c r="E85">
+        <v>-0.02223449787602238</v>
+      </c>
+      <c r="F85">
+        <v>-0.03959402236032993</v>
+      </c>
+      <c r="G85">
+        <v>-0.03429909809481201</v>
+      </c>
+      <c r="H85">
+        <v>0.1572832070346814</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04943861231158122</v>
+        <v>0.05771042566374501</v>
       </c>
       <c r="C86">
-        <v>-0.0298099429773807</v>
+        <v>0.01961298140522516</v>
       </c>
       <c r="D86">
-        <v>0.02532416875176779</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02619438579705534</v>
+      </c>
+      <c r="E86">
+        <v>-0.07046304293315336</v>
+      </c>
+      <c r="F86">
+        <v>-0.02600537203519379</v>
+      </c>
+      <c r="G86">
+        <v>-0.02282999433811454</v>
+      </c>
+      <c r="H86">
+        <v>-0.01036180772282612</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1182464947432179</v>
+        <v>0.1220059374539465</v>
       </c>
       <c r="C87">
-        <v>-0.07133617186032318</v>
+        <v>0.03804492873186617</v>
       </c>
       <c r="D87">
-        <v>0.0751057897656438</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07157036891658669</v>
+      </c>
+      <c r="E87">
+        <v>-0.02603124484565257</v>
+      </c>
+      <c r="F87">
+        <v>5.688476903977681e-06</v>
+      </c>
+      <c r="G87">
+        <v>0.132799987937585</v>
+      </c>
+      <c r="H87">
+        <v>-0.0447913825262763</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05256287136407901</v>
+        <v>0.0601100743910765</v>
       </c>
       <c r="C88">
-        <v>-0.0290113842157028</v>
+        <v>0.0190750437754509</v>
       </c>
       <c r="D88">
-        <v>0.02080199888920626</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03329059547627441</v>
+      </c>
+      <c r="E88">
+        <v>-0.02176056441698907</v>
+      </c>
+      <c r="F88">
+        <v>-0.004953291789787078</v>
+      </c>
+      <c r="G88">
+        <v>0.005099536316512278</v>
+      </c>
+      <c r="H88">
+        <v>0.05340754195186639</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08450339428962501</v>
+        <v>0.09382801037792446</v>
       </c>
       <c r="C89">
-        <v>-0.07160567223042627</v>
+        <v>0.08483930214577795</v>
       </c>
       <c r="D89">
-        <v>-0.3265943790715911</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3494670522712359</v>
+      </c>
+      <c r="E89">
+        <v>-0.06952175392870764</v>
+      </c>
+      <c r="F89">
+        <v>-0.07991254681287902</v>
+      </c>
+      <c r="G89">
+        <v>-0.02629444100727473</v>
+      </c>
+      <c r="H89">
+        <v>0.007564206073413568</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07385041306089075</v>
+        <v>0.07859140023517672</v>
       </c>
       <c r="C90">
-        <v>-0.06108197393563878</v>
+        <v>0.07001096840130634</v>
       </c>
       <c r="D90">
-        <v>-0.3206049443885988</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3067694673419785</v>
+      </c>
+      <c r="E90">
+        <v>-0.06010800492539768</v>
+      </c>
+      <c r="F90">
+        <v>0.002192268891746644</v>
+      </c>
+      <c r="G90">
+        <v>-0.003287037584879708</v>
+      </c>
+      <c r="H90">
+        <v>-0.00119404232643365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08686096397635266</v>
+        <v>0.09028783216514559</v>
       </c>
       <c r="C91">
-        <v>-0.05622460521525002</v>
+        <v>0.03405041125161275</v>
       </c>
       <c r="D91">
-        <v>0.03339947995770994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03150767910144472</v>
+      </c>
+      <c r="E91">
+        <v>-0.01501158488899815</v>
+      </c>
+      <c r="F91">
+        <v>-0.006049388803589167</v>
+      </c>
+      <c r="G91">
+        <v>-0.05507105501368774</v>
+      </c>
+      <c r="H91">
+        <v>0.08174227067140367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07549332503947852</v>
+        <v>0.07848638628154929</v>
       </c>
       <c r="C92">
-        <v>-0.07315436998549765</v>
+        <v>0.08427550833924222</v>
       </c>
       <c r="D92">
-        <v>-0.3399321750324456</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3454143374229762</v>
+      </c>
+      <c r="E92">
+        <v>-0.04429039785735047</v>
+      </c>
+      <c r="F92">
+        <v>-0.03974748929538372</v>
+      </c>
+      <c r="G92">
+        <v>0.01486938857893428</v>
+      </c>
+      <c r="H92">
+        <v>0.01400154894042134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06501985495499618</v>
+        <v>0.07470175828789892</v>
       </c>
       <c r="C93">
-        <v>-0.06575678612317028</v>
+        <v>0.08077262537317721</v>
       </c>
       <c r="D93">
-        <v>-0.3110164827448497</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.303992319355294</v>
+      </c>
+      <c r="E93">
+        <v>-0.03802688540170066</v>
+      </c>
+      <c r="F93">
+        <v>-0.03716673979892478</v>
+      </c>
+      <c r="G93">
+        <v>0.01686215616361787</v>
+      </c>
+      <c r="H93">
+        <v>-0.01403933394569508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1324002748302141</v>
+        <v>0.1265542776978017</v>
       </c>
       <c r="C94">
-        <v>-0.05469108338236108</v>
+        <v>0.02035344237516449</v>
       </c>
       <c r="D94">
-        <v>0.04842589361442823</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04848946082100987</v>
+      </c>
+      <c r="E94">
+        <v>0.002573024399865934</v>
+      </c>
+      <c r="F94">
+        <v>-0.0229046216711649</v>
+      </c>
+      <c r="G94">
+        <v>-0.06190388279698614</v>
+      </c>
+      <c r="H94">
+        <v>0.09959946529089483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1194193926267034</v>
+        <v>0.1262222441663588</v>
       </c>
       <c r="C95">
-        <v>-0.03062188374001793</v>
+        <v>0.00356204265553195</v>
       </c>
       <c r="D95">
-        <v>0.06292176668985057</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.07149200401785864</v>
+      </c>
+      <c r="E95">
+        <v>-0.01686425254142884</v>
+      </c>
+      <c r="F95">
+        <v>-0.03684386076296707</v>
+      </c>
+      <c r="G95">
+        <v>0.01014317702367249</v>
+      </c>
+      <c r="H95">
+        <v>-0.04510443728113354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2211626127227613</v>
+        <v>0.2091104398725947</v>
       </c>
       <c r="C97">
-        <v>-0.05265493217145772</v>
+        <v>0.001121416800185372</v>
       </c>
       <c r="D97">
-        <v>-0.1117859995824778</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.08741785407407841</v>
+      </c>
+      <c r="E97">
+        <v>0.330373208076242</v>
+      </c>
+      <c r="F97">
+        <v>0.8634055582003785</v>
+      </c>
+      <c r="G97">
+        <v>0.06670255168704264</v>
+      </c>
+      <c r="H97">
+        <v>0.01520006551002124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2437438715713144</v>
+        <v>0.2754614815504602</v>
       </c>
       <c r="C98">
-        <v>-0.07205198170305936</v>
+        <v>0.03315786104111348</v>
       </c>
       <c r="D98">
-        <v>0.04580571113260534</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05546812567985817</v>
+      </c>
+      <c r="E98">
+        <v>0.1740905363244033</v>
+      </c>
+      <c r="F98">
+        <v>-0.09598049923379819</v>
+      </c>
+      <c r="G98">
+        <v>-0.2262228300971991</v>
+      </c>
+      <c r="H98">
+        <v>-0.2229839334901054</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4488685264936911</v>
+        <v>0.286301164529891</v>
       </c>
       <c r="C99">
-        <v>0.8775079949299898</v>
+        <v>-0.9329345465686169</v>
       </c>
       <c r="D99">
-        <v>-0.05353391296868852</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.137894234924511</v>
+      </c>
+      <c r="E99">
+        <v>-0.06940564696050711</v>
+      </c>
+      <c r="F99">
+        <v>-0.04724921093243942</v>
+      </c>
+      <c r="G99">
+        <v>-0.02082032155445832</v>
+      </c>
+      <c r="H99">
+        <v>0.06372243740005089</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04051651674302206</v>
+        <v>0.04861309403588501</v>
       </c>
       <c r="C101">
-        <v>-0.03062727909084259</v>
+        <v>0.02602415906680107</v>
       </c>
       <c r="D101">
-        <v>0.00455174439717032</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.00612576457053349</v>
+      </c>
+      <c r="E101">
+        <v>-0.05352889201037081</v>
+      </c>
+      <c r="F101">
+        <v>-0.002321412975870329</v>
+      </c>
+      <c r="G101">
+        <v>-0.01051065637699976</v>
+      </c>
+      <c r="H101">
+        <v>0.07703814155239418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
